--- a/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF03D4F-F5EF-4D0D-9EF7-942A0EFFC8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3E751E-01FA-EA45-B685-A8B1020A8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2745" windowWidth="13260" windowHeight="11145" activeTab="1" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
+    <workbookView xWindow="-19880" yWindow="-19680" windowWidth="31280" windowHeight="15980" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_protocol" sheetId="1" r:id="rId1"/>
@@ -813,32 +813,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EF5D43-F8FE-4B78-AF78-973D69F80AEC}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1333,16 +1333,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CAE84D-D7A9-4BA4-A132-4535E9758382}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1390,37 +1390,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1446,25 +1446,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1480,13 +1480,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1494,25 +1494,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1520,13 +1520,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -1534,13 +1534,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3E751E-01FA-EA45-B685-A8B1020A8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11900F93-CA89-4043-BFDE-42F4387C39A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19880" yWindow="-19680" windowWidth="31280" windowHeight="15980" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
   <si>
     <t/>
   </si>
@@ -199,9 +199,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -227,6 +224,15 @@
   </si>
   <si>
     <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,10 +412,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -497,9 +506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,7 +546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -643,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,32 +822,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EF5D43-F8FE-4B78-AF78-973D69F80AEC}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -891,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -977,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1333,16 +1342,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CAE84D-D7A9-4BA4-A132-4535E9758382}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1390,42 +1399,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -1434,113 +1443,119 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11900F93-CA89-4043-BFDE-42F4387C39A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ABA30-902F-49AB-A106-9972E40728A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
   <si>
     <t/>
   </si>
@@ -193,21 +193,12 @@
     <t>annotationTableSpottyYak58</t>
   </si>
   <si>
-    <t xml:space="preserve"> protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
     <t>MIAPPE</t>
   </si>
   <si>
-    <t>sampling</t>
-  </si>
-  <si>
     <t>assay</t>
   </si>
   <si>
@@ -226,13 +217,22 @@
     <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>Plant</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>NCIT:C25662</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,9 +412,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1340,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CAE84D-D7A9-4BA4-A132-4535E9758382}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1352,7 @@
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1399,92 +1400,97 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="E13" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="E14" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1492,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1506,7 +1512,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,7 +1538,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1546,7 +1552,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">

--- a/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Assay_Sampling_protocol_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ABA30-902F-49AB-A106-9972E40728A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79271E06-EF9F-4B76-847C-9F752C305318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CA0291E-A1B5-4C33-BC1E-4F7174D83277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_protocol" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,10 +412,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1466,7 +1465,6 @@
       <c r="D13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="13"/>
       <c r="F13" t="s">
         <v>65</v>
       </c>
@@ -1476,7 +1474,6 @@
         <v>32</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
